--- a/2016elections/20161108-battleground/builds/development/data/_raw/2016election_directory.xlsx
+++ b/2016elections/20161108-battleground/builds/development/data/_raw/2016election_directory.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="races" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="sources" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="landing" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="sources" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="226">
   <si>
     <t>race</t>
   </si>
@@ -371,6 +372,12 @@
     <t>https://script.googleusercontent.com/a/macros/umn.edu/echo?user_content_key=Zv8xwp9sOVnpdiEmgQENVyWzbVBEyI9gfu-4cOBiTa-jkXvQlTNPbPGhwmur1Eb3F4pSiN9txdjk_Ndw69MkRaN71LCCjcXvOJmA1Yb3SEsKFZqtv3DaNYcMrmhZHmUMi80zadyHLKASbbMAF6orU02DLGwV8tFzI-mtKRf-8plGOUy-lJCxpF2DQLccfmsBGWAyiujVfWxmelbCou2EhfNg1xV69xW9102aPo2dzOEGDGPAI4flugyOaNYl8mEidZVuEzW2lvT3fePB8lK46tzydV9Heyrks2GMRjZhr4-1d_0K6jE0uw_ysTdqTeE7&amp;lib=MVcLnEUipyThKZcpmQKyqT_CoSfd4egCX</t>
   </si>
   <si>
+    <t>McCain</t>
+  </si>
+  <si>
+    <t>Obama</t>
+  </si>
+  <si>
     <t>https://script.googleusercontent.com/a/macros/umn.edu/echo?user_content_key=zT_0nAC0ujWh4Wqs5YE1QAVYTI3kiHgauRUOvYDG0RcdLX6AMlwINWGjDGBTezDyhzrdnELXa6xsYK60hsBklrzIm-WpKUGbOJmA1Yb3SEsKFZqtv3DaNYcMrmhZHmUMi80zadyHLKASbbMAF6orU02DLGwV8tFzI-mtKRf-8plGOUy-lJCxpF2DQLccfmsBGWAyiujVfWxmelbCou2EhfNg1xV69xW9102aPo2dzOEGDGPAI4flugyOaNYl8mEidZVuEzW2lvT3fePB8lK46tzydV9Heyrks2GMRjZhr4-1d_0K6jE0u5HHmGdvaKdP&amp;lib=MVcLnEUipyThKZcpmQKyqT_CoSfd4egCX</t>
   </si>
   <si>
@@ -380,10 +387,19 @@
     <t>https://script.googleusercontent.com/a/macros/umn.edu/echo?user_content_key=7jkNc63CPIvMEY_FcQ07x-cLJHsVSaRlmzj4DdewVGVc3pLSrsLoIHAlSZOaLPcE2oJJPHTEsGbk_Ndw69MkRfIjE4Y-sxGSOJmA1Yb3SEsKFZqtv3DaNYcMrmhZHmUMi80zadyHLKASbbMAF6orU02DLGwV8tFzI-mtKRf-8plGOUy-lJCxpF2DQLccfmsBGWAyiujVfWxmelbCou2EhfNg1xV69xW9102aPo2dzOEGDGPAI4flugyOaNYl8mEidZVuEzW2lvT3fePB8lK46tzydV9Heyrks2GMRjZhr4-1d_0K6jE0u3B6RssmYdap&amp;lib=MVcLnEUipyThKZcpmQKyqT_CoSfd4egCX</t>
   </si>
   <si>
+    <t>Romney</t>
+  </si>
+  <si>
     <t>https://script.googleusercontent.com/a/macros/umn.edu/echo?user_content_key=lm4UcGFZ_pJjSk4zfuJaRm8ljNk7pKtU-1b9NR5dNAkjXH0--0fflqBPsy8hQmNushUpU_S2wkjk_Ndw69MkRT2GJnxmmsfwOJmA1Yb3SEsKFZqtv3DaNYcMrmhZHmUMi80zadyHLKASbbMAF6orU02DLGwV8tFzI-mtKRf-8plGOUy-lJCxpF2DQLccfmsBGWAyiujVfWxmelbCou2EhfNg1xV69xW9102aPo2dzOEGDGPAI4flugyOaNYl8mEidZVuEzW2lvT3fePB8lK46tzydV9Heyrks2GMRjZhr4-1d_0K6jE0u_zq81NU6_ny&amp;lib=MVcLnEUipyThKZcpmQKyqT_CoSfd4egCX</t>
   </si>
   <si>
-    <t>Marco Rubio</t>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Clinton</t>
   </si>
   <si>
     <t>qwt</t>
@@ -465,6 +481,69 @@
   </si>
   <si>
     <t>https://script.googleusercontent.com/a/macros/umn.edu/echo?user_content_key=8Wa9KqI1RTK3aMXZgzISVfk81xke2nBK6Z3S76ZjrNNFCr02lg7WxQN0We7Z3MEUpvOkCyUctItfp3Kk6tWrSVYdyWUjQRfXOJmA1Yb3SEsKFZqtv3DaNYcMrmhZHmUMi80zadyHLKASbbMAF6orU02DLGwV8tFzI-mtKRf-8plGOUy-lJCxpF2DQLccfmsBGWAyiujVfWxmelbCou2EhfNg1xV69xW9102aPo2dzOEuuhk6-bi_QoVqU33puwz6Q5JQMvcfDcd0zRdub9szuUUMUJXJCIHzoo9oGiuyDRYVkbRF-Ktle_zq81NU6_ny&amp;lib=MVcLnEUipyThKZcpmQKyqT_CoSfd4egCX</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>chatter</t>
+  </si>
+  <si>
+    <t>Who will win the Minnesota House of Representatives?</t>
+  </si>
+  <si>
+    <t>img/mnleg.png</t>
+  </si>
+  <si>
+    <t>http://striblab.github.io/2016election/mnhouse/</t>
+  </si>
+  <si>
+    <t>mnleg</t>
+  </si>
+  <si>
+    <t>&lt;span class='d3'&gt;Democrats&lt;/span&gt; would need to win &lt;span class='d3'&gt;seven&lt;/span&gt; seats to regain control of Minnesota's House of Representatives.</t>
+  </si>
+  <si>
+    <t>How did Minnesota vote on Super Tuesday?</t>
+  </si>
+  <si>
+    <t>img/rpmprimary.png</t>
+  </si>
+  <si>
+    <t>http://www.startribune.com/how-did-minnesota-vote-on-super-tuesday-a-look-at-data/370928321/</t>
+  </si>
+  <si>
+    <t>Minnesota continued to buck national electoral trends as &lt;span class="d3"&gt;Bernie Sanders&lt;/span&gt; and &lt;span class="r3"&gt;Marco Rubio&lt;/span&gt; each claimed big wins in their respective party caucuses in March 2016.</t>
+  </si>
+  <si>
+    <t>Which candidates did Minnesota Republicans support for president during the primary season?</t>
+  </si>
+  <si>
+    <t>img/rpm_poll.png</t>
+  </si>
+  <si>
+    <t>http://www.startribune.com/minnesota-poll-results-presidential-race/366232021/</t>
+  </si>
+  <si>
+    <t>&lt;span class="r3"&gt;Marco Rubio&lt;/span&gt; and &lt;span class="r3"&gt;Ted Cruz&lt;/span&gt; were roughly even for support among &lt;span class="r3"&gt;Republicans&lt;/span&gt; in Minnesota during the GOP presidential primary, with &lt;span class="r3"&gt;Donald Trump&lt;/span&gt; coming in a distant third, poll results that resembled how the state voted on Super Tuesday.</t>
+  </si>
+  <si>
+    <t>Which candidates did Minnesota Democrats support for president during the primary season?</t>
+  </si>
+  <si>
+    <t>img/dfl_poll.png</t>
+  </si>
+  <si>
+    <t>&lt;span class="d3"&gt;Hillary Clinton&lt;/span&gt; had a commanding lead ahead of &lt;span class="d3"&gt;Bernie Sanders&lt;/span&gt; among Minnesota Democrats in January's Star Tribune Minnesota Poll, but she lost the state to him on Super Tuesday.</t>
   </si>
   <si>
     <t>https://script.google.com/macros/s/AKfycbwG7mX6qPZaIhkwY2AJ2lU7kNarbm6OWIkWVfnmYZGYruIl40cu/exec?id=17N3mrwSRe6BJScRby9auxtQ8o7UwhfXv2IuTxbmlakY&amp;sheet=mnhouse2016</t>
@@ -725,6 +804,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -4900,10 +4983,10 @@
         <v>83</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="X26" s="9">
         <v>173.0</v>
@@ -5037,13 +5120,13 @@
         <v>116</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>58</v>
@@ -5064,10 +5147,10 @@
         <v>83</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="X27" s="9">
         <v>206.0</v>
@@ -5207,7 +5290,7 @@
         <v>58</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>58</v>
@@ -5222,16 +5305,16 @@
         <v>58</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="X28" s="9">
         <v>173.0</v>
@@ -5270,66 +5353,66 @@
         <v>1</v>
       </c>
       <c r="AJ28" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AK28" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AM28" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AN28" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AO28" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AP28" s="10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AQ28" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AR28" s="10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AS28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU28" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AT28" s="10" t="s">
+      <c r="AV28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW28" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX28" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AU28" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV28" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW28" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX28" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY28" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="AZ28" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BA28" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BB28" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1">
         <v>2008.0</v>
@@ -5362,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>95</v>
@@ -5493,7 +5576,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1">
         <v>2010.0</v>
@@ -5526,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>98</v>
@@ -5657,7 +5740,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1">
         <v>2012.0</v>
@@ -5690,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>100</v>
@@ -5821,7 +5904,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1">
         <v>2014.0</v>
@@ -5854,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>102</v>
@@ -5985,7 +6068,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1">
         <v>2016.0</v>
@@ -6018,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>104</v>
@@ -6149,7 +6232,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B34" s="13">
         <v>2008.0</v>
@@ -6182,16 +6265,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>58</v>
@@ -6313,7 +6396,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B35" s="13">
         <v>2010.0</v>
@@ -6346,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>58</v>
@@ -6355,7 +6438,7 @@
         <v>58</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>58</v>
@@ -6477,7 +6560,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1">
         <v>2012.0</v>
@@ -6510,16 +6593,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>58</v>
@@ -6641,7 +6724,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B37" s="1">
         <v>2014.0</v>
@@ -6674,16 +6757,16 @@
         <v>0</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>58</v>
@@ -6805,7 +6888,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B38" s="1">
         <v>2016.0</v>
@@ -6838,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>58</v>
@@ -6847,7 +6930,7 @@
         <v>58</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>58</v>
@@ -7099,148 +7182,269 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33">
@@ -7250,107 +7454,107 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
